--- a/게임 기획파일/시스템기획수정_200917_ver.0.4.xlsx
+++ b/게임 기획파일/시스템기획수정_200917_ver.0.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\원형\Desktop\TeamProject1\게임 기획파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\게임 기획파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,10 @@
     <sheet name="훈련DB" sheetId="4" r:id="rId2"/>
     <sheet name="몬스터DB" sheetId="5" r:id="rId3"/>
     <sheet name="무기 DB" sheetId="6" r:id="rId4"/>
-    <sheet name="보물" sheetId="7" r:id="rId5"/>
-    <sheet name="보물 DB" sheetId="10" r:id="rId6"/>
-    <sheet name="수색 DB" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
+    <sheet name="보물" sheetId="7" r:id="rId6"/>
+    <sheet name="보물 DB" sheetId="10" r:id="rId7"/>
+    <sheet name="수색 DB" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="178">
   <si>
     <t>훈련 [ n = 레벨 값 ]</t>
   </si>
@@ -994,9 +995,6 @@
     <t>amount_9</t>
   </si>
   <si>
-    <t>amount_10</t>
-  </si>
-  <si>
     <t>weapon_wooden-sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1022,38 +1020,6 @@
   </si>
   <si>
     <t>weapon_double-edged-ax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무 막대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무 몽둥이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹슨 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토막 칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전쟁 도끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양날 도끼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1093,11 +1059,19 @@
     <t>atk_10</t>
   </si>
   <si>
-    <t>무기 데이터베이스 [ 가격 ] ( 공식 부여 )</t>
+    <t>POWER((3+0.2*(weapon_atk-25)),2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POWER((3+0.2*(weapon_atk-25)),2)</t>
+    <t>leveled_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_wooden-sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUsing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1712,7 +1686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,31 +1885,19 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,6 +1927,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1987,18 +2021,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2067,82 +2089,16 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2169,7 +2125,28 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2563,12 +2540,12 @@
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:48" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2618,35 +2595,35 @@
       <c r="AU1" s="8"/>
       <c r="AV1" s="8"/>
     </row>
-    <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="68"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="97"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2670,33 +2647,33 @@
       <c r="AU2" s="8"/>
       <c r="AV2" s="8"/>
     </row>
-    <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="71"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="100"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2720,33 +2697,33 @@
       <c r="AU3" s="8"/>
       <c r="AV3" s="8"/>
     </row>
-    <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="74"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="103"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2770,7 +2747,7 @@
       <c r="AU4" s="8"/>
       <c r="AV4" s="8"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -2820,7 +2797,7 @@
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
     </row>
-    <row r="6" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -2870,12 +2847,12 @@
       <c r="AU6" s="8"/>
       <c r="AV6" s="8"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -2922,10 +2899,10 @@
       <c r="AU7" s="8"/>
       <c r="AV7" s="8"/>
     </row>
-    <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -2972,7 +2949,7 @@
       <c r="AU8" s="8"/>
       <c r="AV8" s="8"/>
     </row>
-    <row r="9" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="27"/>
       <c r="C9" s="8"/>
@@ -3022,7 +2999,7 @@
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
     </row>
-    <row r="10" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="28"/>
       <c r="C10" s="8"/>
@@ -3034,27 +3011,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="102" t="s">
+      <c r="L10" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="103"/>
-      <c r="N10" s="96" t="s">
+      <c r="M10" s="119"/>
+      <c r="N10" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="97"/>
-      <c r="P10" s="75" t="s">
+      <c r="O10" s="113"/>
+      <c r="P10" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="77"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="73"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3078,7 +3055,7 @@
       <c r="AU10" s="8"/>
       <c r="AV10" s="8"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="28"/>
       <c r="C11" s="8"/>
@@ -3090,21 +3067,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="80"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="76"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3128,7 +3105,7 @@
       <c r="AU11" s="8"/>
       <c r="AV11" s="8"/>
     </row>
-    <row r="12" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="28"/>
       <c r="C12" s="8"/>
@@ -3140,21 +3117,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="80"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="76"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3178,37 +3155,37 @@
       <c r="AU12" s="8"/>
       <c r="AV12" s="8"/>
     </row>
-    <row r="13" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="115"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="89"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="83"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="79"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3232,37 +3209,37 @@
       <c r="AU13" s="8"/>
       <c r="AV13" s="8"/>
     </row>
-    <row r="14" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="96" t="s">
+      <c r="L14" s="120"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="97"/>
-      <c r="P14" s="75" t="s">
+      <c r="O14" s="113"/>
+      <c r="P14" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="77"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="73"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3286,7 +3263,7 @@
       <c r="AU14" s="8"/>
       <c r="AV14" s="8"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="28"/>
       <c r="C15" s="8"/>
@@ -3298,21 +3275,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="80"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="76"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3336,7 +3313,7 @@
       <c r="AU15" s="8"/>
       <c r="AV15" s="8"/>
     </row>
-    <row r="16" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="28"/>
       <c r="C16" s="8"/>
@@ -3348,21 +3325,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="80"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="76"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3386,7 +3363,7 @@
       <c r="AU16" s="8"/>
       <c r="AV16" s="8"/>
     </row>
-    <row r="17" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="28"/>
       <c r="C17" s="8"/>
@@ -3394,27 +3371,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="89"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="83"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="79"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3438,7 +3415,7 @@
       <c r="AU17" s="8"/>
       <c r="AV17" s="8"/>
     </row>
-    <row r="18" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8"/>
@@ -3446,31 +3423,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="108" t="s">
+      <c r="L18" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="109"/>
-      <c r="N18" s="126" t="s">
+      <c r="M18" s="125"/>
+      <c r="N18" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="127"/>
-      <c r="P18" s="75" t="s">
+      <c r="O18" s="88"/>
+      <c r="P18" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="122"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="81"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3494,7 +3471,7 @@
       <c r="AU18" s="8"/>
       <c r="AV18" s="8"/>
     </row>
-    <row r="19" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8"/>
@@ -3506,21 +3483,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
-      <c r="Z19" s="125"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="84"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3544,7 +3521,7 @@
       <c r="AU19" s="8"/>
       <c r="AV19" s="8"/>
     </row>
-    <row r="20" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8"/>
@@ -3556,25 +3533,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="126" t="s">
+      <c r="L20" s="126"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="127"/>
-      <c r="P20" s="130" t="s">
+      <c r="O20" s="88"/>
+      <c r="P20" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="121"/>
-      <c r="R20" s="121"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="122"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="81"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3598,37 +3575,37 @@
       <c r="AU20" s="8"/>
       <c r="AV20" s="8"/>
     </row>
-    <row r="21" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="92" t="s">
+      <c r="H21" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="93"/>
+      <c r="I21" s="68"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="125"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="84"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3652,37 +3629,37 @@
       <c r="AU21" s="8"/>
       <c r="AV21" s="8"/>
     </row>
-    <row r="22" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="95"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="118" t="s">
+      <c r="L22" s="126"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="127"/>
-      <c r="P22" s="131" t="s">
+      <c r="O22" s="88"/>
+      <c r="P22" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="77"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="73"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3706,7 +3683,7 @@
       <c r="AU22" s="8"/>
       <c r="AV22" s="8"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3718,21 +3695,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="80"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="76"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3756,7 +3733,7 @@
       <c r="AU23" s="8"/>
       <c r="AV23" s="8"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3768,21 +3745,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="80"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="76"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3806,7 +3783,7 @@
       <c r="AU24" s="8"/>
       <c r="AV24" s="8"/>
     </row>
-    <row r="25" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3818,21 +3795,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="83"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="79"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3856,7 +3833,7 @@
       <c r="AU25" s="8"/>
       <c r="AV25" s="8"/>
     </row>
-    <row r="26" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3864,31 +3841,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="92" t="s">
+      <c r="H26" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="93"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="118" t="s">
+      <c r="L26" s="126"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="118"/>
-      <c r="P26" s="75" t="s">
+      <c r="O26" s="87"/>
+      <c r="P26" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="77"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="73"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -3912,7 +3889,7 @@
       <c r="AU26" s="8"/>
       <c r="AV26" s="8"/>
     </row>
-    <row r="27" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3920,25 +3897,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="95"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="80"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="76"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -3962,7 +3939,7 @@
       <c r="AU27" s="8"/>
       <c r="AV27" s="8"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3974,21 +3951,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="80"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="76"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4012,7 +3989,7 @@
       <c r="AU28" s="8"/>
       <c r="AV28" s="8"/>
     </row>
-    <row r="29" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -4024,21 +4001,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="83"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="79"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4062,7 +4039,7 @@
       <c r="AU29" s="8"/>
       <c r="AV29" s="8"/>
     </row>
-    <row r="30" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4074,25 +4051,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="126" t="s">
+      <c r="L30" s="126"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="127"/>
-      <c r="P30" s="75" t="s">
+      <c r="O30" s="88"/>
+      <c r="P30" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="122"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="81"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4116,7 +4093,7 @@
       <c r="AU30" s="8"/>
       <c r="AV30" s="8"/>
     </row>
-    <row r="31" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4124,27 +4101,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="92" t="s">
+      <c r="H31" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="93"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="124"/>
-      <c r="S31" s="124"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="125"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="83"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="84"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4168,7 +4145,7 @@
       <c r="AU31" s="8"/>
       <c r="AV31" s="8"/>
     </row>
-    <row r="32" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4176,8 +4153,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4218,7 +4195,7 @@
       <c r="AU32" s="8"/>
       <c r="AV32" s="8"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4268,7 +4245,7 @@
       <c r="AU33" s="8"/>
       <c r="AV33" s="8"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4318,7 +4295,7 @@
       <c r="AU34" s="8"/>
       <c r="AV34" s="8"/>
     </row>
-    <row r="35" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4368,7 +4345,7 @@
       <c r="AU35" s="8"/>
       <c r="AV35" s="8"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4376,10 +4353,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="93"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4420,7 +4397,7 @@
       <c r="AU36" s="8"/>
       <c r="AV36" s="8"/>
     </row>
-    <row r="37" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4428,8 +4405,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="95"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="70"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4470,7 +4447,7 @@
       <c r="AU37" s="8"/>
       <c r="AV37" s="8"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4520,7 +4497,7 @@
       <c r="AU38" s="8"/>
       <c r="AV38" s="8"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4570,7 +4547,7 @@
       <c r="AU39" s="8"/>
       <c r="AV39" s="8"/>
     </row>
-    <row r="40" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4620,7 +4597,7 @@
       <c r="AU40" s="8"/>
       <c r="AV40" s="8"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4628,10 +4605,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="92" t="s">
+      <c r="H41" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="93"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4672,7 +4649,7 @@
       <c r="AU41" s="8"/>
       <c r="AV41" s="8"/>
     </row>
-    <row r="42" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4680,8 +4657,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="95"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="70"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -4722,7 +4699,7 @@
       <c r="AU42" s="8"/>
       <c r="AV42" s="8"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -4767,7 +4744,7 @@
       <c r="AU43" s="8"/>
       <c r="AV43" s="8"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -4812,7 +4789,7 @@
       <c r="AU44" s="8"/>
       <c r="AV44" s="8"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -4862,7 +4839,7 @@
       <c r="AU45" s="8"/>
       <c r="AV45" s="8"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -4912,7 +4889,7 @@
       <c r="AU46" s="8"/>
       <c r="AV46" s="8"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -4962,7 +4939,7 @@
       <c r="AU47" s="8"/>
       <c r="AV47" s="8"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -5012,7 +4989,7 @@
       <c r="AU48" s="8"/>
       <c r="AV48" s="8"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -5062,7 +5039,7 @@
       <c r="AU49" s="8"/>
       <c r="AV49" s="8"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -5112,7 +5089,7 @@
       <c r="AU50" s="8"/>
       <c r="AV50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -5162,7 +5139,7 @@
       <c r="AU51" s="8"/>
       <c r="AV51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -5212,7 +5189,7 @@
       <c r="AU52" s="8"/>
       <c r="AV52" s="8"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -5262,7 +5239,7 @@
       <c r="AU53" s="8"/>
       <c r="AV53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -5312,7 +5289,7 @@
       <c r="AU54" s="8"/>
       <c r="AV54" s="8"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -5362,7 +5339,7 @@
       <c r="AU55" s="8"/>
       <c r="AV55" s="8"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -5412,7 +5389,7 @@
       <c r="AU56" s="8"/>
       <c r="AV56" s="8"/>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -5462,7 +5439,7 @@
       <c r="AU57" s="8"/>
       <c r="AV57" s="8"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -5512,7 +5489,7 @@
       <c r="AU58" s="8"/>
       <c r="AV58" s="8"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -5562,7 +5539,7 @@
       <c r="AU59" s="8"/>
       <c r="AV59" s="8"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -5612,7 +5589,7 @@
       <c r="AU60" s="8"/>
       <c r="AV60" s="8"/>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -5659,7 +5636,7 @@
       <c r="AU61" s="8"/>
       <c r="AV61" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -5708,7 +5685,7 @@
       <c r="AU62" s="8"/>
       <c r="AV62" s="8"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -5757,7 +5734,7 @@
       <c r="AU63" s="8"/>
       <c r="AV63" s="8"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -5806,7 +5783,7 @@
       <c r="AU64" s="8"/>
       <c r="AV64" s="8"/>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -5855,7 +5832,7 @@
       <c r="AU65" s="8"/>
       <c r="AV65" s="8"/>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -5904,7 +5881,7 @@
       <c r="AU66" s="8"/>
       <c r="AV66" s="8"/>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -5953,7 +5930,7 @@
       <c r="AU67" s="8"/>
       <c r="AV67" s="8"/>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -6002,7 +5979,7 @@
       <c r="AU68" s="8"/>
       <c r="AV68" s="8"/>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -6051,7 +6028,7 @@
       <c r="AU69" s="8"/>
       <c r="AV69" s="8"/>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -6100,7 +6077,7 @@
       <c r="AU70" s="8"/>
       <c r="AV70" s="8"/>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -6150,7 +6127,7 @@
       <c r="AU71" s="8"/>
       <c r="AV71" s="8"/>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -6173,7 +6150,7 @@
       <c r="T72" s="19"/>
       <c r="U72" s="19"/>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -6196,7 +6173,7 @@
       <c r="T73" s="19"/>
       <c r="U73" s="19"/>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -6219,7 +6196,7 @@
       <c r="T74" s="19"/>
       <c r="U74" s="19"/>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -6242,7 +6219,7 @@
       <c r="T75" s="19"/>
       <c r="U75" s="19"/>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -6265,7 +6242,7 @@
       <c r="T76" s="19"/>
       <c r="U76" s="19"/>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -6288,7 +6265,7 @@
       <c r="T77" s="19"/>
       <c r="U77" s="19"/>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -6313,17 +6290,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6340,6 +6306,17 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6351,152 +6328,152 @@
   <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="25" max="25" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="133" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="138"/>
-      <c r="I1" s="133" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="150"/>
+      <c r="I1" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="144"/>
-      <c r="K1" s="133" t="s">
+      <c r="J1" s="138"/>
+      <c r="K1" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="147"/>
-      <c r="M1" s="148"/>
-      <c r="P1" s="152" t="s">
+      <c r="L1" s="141"/>
+      <c r="M1" s="142"/>
+      <c r="P1" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
-      <c r="W1" s="152" t="s">
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="W1" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="152" t="s">
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="152"/>
-    </row>
-    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="135"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="B3" s="142" t="s">
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="145"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B3" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142" t="s">
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="I3" s="142" t="s">
+      <c r="F3" s="135"/>
+      <c r="I3" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142" t="s">
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="142"/>
-      <c r="P3" s="142" t="s">
+      <c r="M3" s="135"/>
+      <c r="P3" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142" t="s">
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="142"/>
-      <c r="W3" s="142" t="s">
+      <c r="T3" s="135"/>
+      <c r="W3" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142" t="s">
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="142"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="B4" s="142" t="s">
+      <c r="AA3" s="135"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142" t="s">
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="I4" s="142" t="s">
+      <c r="F4" s="135"/>
+      <c r="I4" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142" t="s">
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="142"/>
-      <c r="P4" s="142" t="s">
+      <c r="M4" s="135"/>
+      <c r="P4" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142" t="s">
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="142"/>
-      <c r="W4" s="142" t="s">
+      <c r="T4" s="135"/>
+      <c r="W4" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142" t="s">
+      <c r="X4" s="135"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="142"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AA4" s="135"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
@@ -6558,7 +6535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -6636,7 +6613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>2</v>
@@ -6714,7 +6691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>3</v>
@@ -6728,7 +6705,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E7:E70" si="11">QUOTIENT(C8,6)</f>
+        <f t="shared" ref="E8:E70" si="11">QUOTIENT(C8,6)</f>
         <v>11</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -6792,7 +6769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>4</v>
@@ -6870,7 +6847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>5</v>
@@ -6948,7 +6925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>6</v>
@@ -7026,7 +7003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>7</v>
@@ -7104,7 +7081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
         <v>8</v>
@@ -7182,7 +7159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2">
         <v>9</v>
@@ -7260,7 +7237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>10</v>
@@ -7338,7 +7315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>11</v>
@@ -7416,7 +7393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2">
         <v>12</v>
@@ -7494,7 +7471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2">
         <v>13</v>
@@ -7572,7 +7549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2">
         <v>14</v>
@@ -7650,7 +7627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2">
         <v>15</v>
@@ -7728,7 +7705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2">
         <v>16</v>
@@ -7806,7 +7783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2">
         <v>17</v>
@@ -7884,7 +7861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2">
         <v>18</v>
@@ -7962,7 +7939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2">
         <v>19</v>
@@ -8040,7 +8017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2">
         <v>20</v>
@@ -8118,7 +8095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>21</v>
@@ -8196,7 +8173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>22</v>
@@ -8274,7 +8251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2">
         <v>23</v>
@@ -8352,7 +8329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2">
         <v>24</v>
@@ -8430,7 +8407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2">
         <v>25</v>
@@ -8508,7 +8485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2">
         <v>26</v>
@@ -8586,7 +8563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="2">
         <v>27</v>
@@ -8664,7 +8641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2">
         <v>28</v>
@@ -8742,7 +8719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2">
         <v>29</v>
@@ -8820,7 +8797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2">
         <v>30</v>
@@ -8898,7 +8875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2">
         <v>31</v>
@@ -8976,7 +8953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2">
         <v>32</v>
@@ -9054,7 +9031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
         <v>33</v>
@@ -9132,7 +9109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="2">
         <v>34</v>
@@ -9210,7 +9187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="2">
         <v>35</v>
@@ -9288,7 +9265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="2">
         <v>36</v>
@@ -9366,7 +9343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2">
         <v>37</v>
@@ -9444,7 +9421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2">
         <v>38</v>
@@ -9522,7 +9499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="2">
         <v>39</v>
@@ -9600,7 +9577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2">
         <v>40</v>
@@ -9678,7 +9655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2">
         <v>41</v>
@@ -9756,7 +9733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="2">
         <v>42</v>
@@ -9834,7 +9811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="2">
         <v>43</v>
@@ -9912,7 +9889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="2">
         <v>44</v>
@@ -9990,7 +9967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="2">
         <v>45</v>
@@ -10068,7 +10045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="2">
         <v>46</v>
@@ -10146,7 +10123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="2">
         <v>47</v>
@@ -10224,7 +10201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="2">
         <v>48</v>
@@ -10302,7 +10279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="2">
         <v>49</v>
@@ -10380,7 +10357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="2">
         <v>50</v>
@@ -10458,7 +10435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="2">
         <v>51</v>
@@ -10536,7 +10513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="2">
         <v>52</v>
@@ -10614,7 +10591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="2">
         <v>53</v>
@@ -10692,7 +10669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="2">
         <v>54</v>
@@ -10770,7 +10747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="2">
         <v>55</v>
@@ -10848,7 +10825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="2">
         <v>56</v>
@@ -10926,7 +10903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="2">
         <v>57</v>
@@ -11004,7 +10981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="2">
         <v>58</v>
@@ -11082,7 +11059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="2">
         <v>59</v>
@@ -11160,7 +11137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="2">
         <v>60</v>
@@ -11238,7 +11215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="2">
         <v>61</v>
@@ -11316,7 +11293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="2">
         <v>62</v>
@@ -11394,7 +11371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="2">
         <v>63</v>
@@ -11472,7 +11449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="2">
         <v>64</v>
@@ -11550,7 +11527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="2">
         <v>65</v>
@@ -11628,7 +11605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="2">
         <v>66</v>
@@ -11706,7 +11683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="2">
         <v>67</v>
@@ -11784,7 +11761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="2">
         <v>68</v>
@@ -11862,7 +11839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="2">
         <v>69</v>
@@ -11940,7 +11917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="2">
         <v>70</v>
@@ -12018,7 +11995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="2">
         <v>71</v>
@@ -12096,7 +12073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="2">
         <v>72</v>
@@ -12174,7 +12151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="2">
         <v>73</v>
@@ -12252,7 +12229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="2">
         <v>74</v>
@@ -12330,7 +12307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="2">
         <v>75</v>
@@ -12408,7 +12385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="2">
         <v>76</v>
@@ -12486,7 +12463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="2">
         <v>77</v>
@@ -12564,7 +12541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="2">
         <v>78</v>
@@ -12642,7 +12619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="2">
         <v>79</v>
@@ -12720,7 +12697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="2">
         <v>80</v>
@@ -12798,7 +12775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="2">
         <v>81</v>
@@ -12876,7 +12853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="2">
         <v>82</v>
@@ -12954,7 +12931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="2">
         <v>83</v>
@@ -13032,7 +13009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="2">
         <v>84</v>
@@ -13110,7 +13087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="2">
         <v>85</v>
@@ -13188,7 +13165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="2">
         <v>86</v>
@@ -13266,7 +13243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="2">
         <v>87</v>
@@ -13344,7 +13321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="2">
         <v>88</v>
@@ -13422,7 +13399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="2">
         <v>89</v>
@@ -13500,7 +13477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="2">
         <v>90</v>
@@ -13578,7 +13555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="2">
         <v>91</v>
@@ -13656,7 +13633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="2">
         <v>92</v>
@@ -13734,7 +13711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="2">
         <v>93</v>
@@ -13812,7 +13789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="2">
         <v>94</v>
@@ -13890,7 +13867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="2">
         <v>95</v>
@@ -13968,7 +13945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="2">
         <v>96</v>
@@ -14046,7 +14023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="2">
         <v>97</v>
@@ -14124,7 +14101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="2">
         <v>98</v>
@@ -14202,7 +14179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="3">
         <v>99</v>
@@ -14280,7 +14257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="2">
         <v>100</v>
@@ -14358,11 +14335,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="B106" s="143" t="s">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B106" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="143"/>
+      <c r="C106" s="134"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14373,10 +14350,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="143" t="s">
+      <c r="I106" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="143"/>
+      <c r="J106" s="134"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14387,10 +14364,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="143" t="s">
+      <c r="P106" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="143"/>
+      <c r="Q106" s="134"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14401,10 +14378,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="143" t="s">
+      <c r="W106" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="143"/>
+      <c r="X106" s="134"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14416,7 +14393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C108">
         <f>POWER((7+0.4*(0-1)),2)</f>
         <v>43.559999999999995</v>
@@ -14432,22 +14409,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14460,6 +14421,22 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14471,11 +14448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2.25" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
@@ -14487,69 +14464,69 @@
     <col min="14" max="14" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C1" s="153" t="s">
+    <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-    </row>
-    <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-    </row>
-    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+    </row>
+    <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+    </row>
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="166"/>
+      <c r="D3" s="167"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="K3" s="154" t="s">
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="K3" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="156"/>
-    </row>
-    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+    </row>
+    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="142"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="159"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="160"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="s">
         <v>87</v>
@@ -14572,14 +14549,14 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="162"/>
-    </row>
-    <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="163"/>
+    </row>
+    <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="2">
         <v>1</v>
@@ -14593,33 +14570,33 @@
         <v>1620</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:F37" si="0">(D6:D105/30)</f>
+        <f>(D6:D105/30)</f>
         <v>10.8</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6:G37" si="1">ROUND(F6:F105,0)</f>
+        <f>ROUND(F6:F105,0)</f>
         <v>11</v>
       </c>
       <c r="H6" s="22">
-        <f t="shared" ref="H6:H37" si="2">(G6:G105/5)</f>
+        <f>(G6:G105/5)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I6" s="21">
-        <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
+        <f>ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="163"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="165"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="K6" s="164"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="166"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="21">
-        <f t="shared" ref="D7:D70" si="4">((C7:C106+8 )*4*0.5)^2</f>
+        <f t="shared" ref="D7:D70" si="0">((C7:C106+8 )*4*0.5)^2</f>
         <v>400</v>
       </c>
       <c r="E7" s="9">
@@ -14627,30 +14604,30 @@
         <v>2000</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F7:F37" si="1">(D7:D106/30)</f>
         <v>13.333333333333334</v>
       </c>
       <c r="G7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G7:G37" si="2">ROUND(F7:F106,0)</f>
         <v>13</v>
       </c>
       <c r="H7" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H7:H37" si="3">(G7:G106/5)</f>
         <v>2.6</v>
       </c>
       <c r="I7" s="21">
-        <f t="shared" si="3"/>
+        <f>ROUND(H7:H106,0)</f>
         <v>3</v>
       </c>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>484</v>
       </c>
       <c r="E8" s="9">
@@ -14658,29 +14635,29 @@
         <v>2420</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.133333333333333</v>
       </c>
       <c r="G8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="I8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I8:I37" si="4">ROUND(H8:H107,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>576</v>
       </c>
       <c r="E9" s="9">
@@ -14688,29 +14665,29 @@
         <v>2880</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
       <c r="G9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H9" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8</v>
       </c>
       <c r="I9" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>676</v>
       </c>
       <c r="E10" s="9">
@@ -14718,29 +14695,29 @@
         <v>3380</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.533333333333335</v>
       </c>
       <c r="G10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="H10" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="I10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>784</v>
       </c>
       <c r="E11" s="9">
@@ -14748,29 +14725,29 @@
         <v>4312</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.133333333333333</v>
       </c>
       <c r="G11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="H11" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
       <c r="I11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="2">
         <v>7</v>
       </c>
       <c r="D12" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="E12" s="9">
@@ -14778,29 +14755,29 @@
         <v>4950</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G12" s="21">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="G12" s="21">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
       <c r="H12" s="22">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I12" s="21">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="I12" s="21">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="2">
         <v>8</v>
       </c>
       <c r="D13" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="E13" s="9">
@@ -14808,29 +14785,29 @@
         <v>5632</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.133333333333333</v>
       </c>
       <c r="G13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8</v>
       </c>
       <c r="I13" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="2">
         <v>9</v>
       </c>
       <c r="D14" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1156</v>
       </c>
       <c r="E14" s="9">
@@ -14838,29 +14815,29 @@
         <v>6358</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.533333333333331</v>
       </c>
       <c r="G14" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="H14" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8</v>
       </c>
       <c r="I14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="2">
         <v>10</v>
       </c>
       <c r="D15" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1296</v>
       </c>
       <c r="E15" s="9">
@@ -14868,29 +14845,29 @@
         <v>7128</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.2</v>
       </c>
       <c r="G15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="H15" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6</v>
       </c>
       <c r="I15" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="2">
         <v>11</v>
       </c>
       <c r="D16" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1444</v>
       </c>
       <c r="E16" s="9">
@@ -14898,29 +14875,29 @@
         <v>8664</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.133333333333333</v>
       </c>
       <c r="G16" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="H16" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="2">
         <v>12</v>
       </c>
       <c r="D17" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="E17" s="9">
@@ -14928,29 +14905,29 @@
         <v>9600</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.333333333333336</v>
       </c>
       <c r="G17" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.6</v>
       </c>
       <c r="I17" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="2">
         <v>13</v>
       </c>
       <c r="D18" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1764</v>
       </c>
       <c r="E18" s="9">
@@ -14958,29 +14935,29 @@
         <v>10584</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="H18" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.8</v>
       </c>
       <c r="I18" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="2">
         <v>14</v>
       </c>
       <c r="D19" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1936</v>
       </c>
       <c r="E19" s="9">
@@ -14988,29 +14965,29 @@
         <v>11616</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.533333333333331</v>
       </c>
       <c r="G19" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="H19" s="22">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="I19" s="21">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="I19" s="21">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="2">
         <v>15</v>
       </c>
       <c r="D20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2116</v>
       </c>
       <c r="E20" s="9">
@@ -15018,29 +14995,29 @@
         <v>12696</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.533333333333331</v>
       </c>
       <c r="G20" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="H20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.2</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="2">
         <v>16</v>
       </c>
       <c r="D21" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2304</v>
       </c>
       <c r="E21" s="9">
@@ -15048,29 +15025,29 @@
         <v>14976</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.8</v>
       </c>
       <c r="G21" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="H21" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.4</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="2">
         <v>17</v>
       </c>
       <c r="D22" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="E22" s="9">
@@ -15078,29 +15055,29 @@
         <v>16250</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
       <c r="G22" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="H22" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.600000000000001</v>
       </c>
       <c r="I22" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="2">
         <v>18</v>
       </c>
       <c r="D23" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2704</v>
       </c>
       <c r="E23" s="9">
@@ -15108,29 +15085,29 @@
         <v>17576</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.13333333333334</v>
       </c>
       <c r="G23" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="H23" s="22">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I23" s="21">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="I23" s="21">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="2">
         <v>19</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2916</v>
       </c>
       <c r="E24" s="9">
@@ -15138,29 +15115,29 @@
         <v>18954</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.2</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="H24" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.399999999999999</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="2">
         <v>20</v>
       </c>
       <c r="D25" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3136</v>
       </c>
       <c r="E25" s="9">
@@ -15168,29 +15145,29 @@
         <v>20384</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104.53333333333333</v>
       </c>
       <c r="G25" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="H25" s="22">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I25" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="I25" s="21">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="2">
         <v>21</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3364</v>
       </c>
       <c r="E26" s="9">
@@ -15198,29 +15175,29 @@
         <v>23548</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.13333333333334</v>
       </c>
       <c r="G26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="H26" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.4</v>
       </c>
       <c r="I26" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="2">
         <v>22</v>
       </c>
       <c r="D27" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
       <c r="E27" s="9">
@@ -15228,29 +15205,29 @@
         <v>25200</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="G27" s="21">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
+      <c r="G27" s="21">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
       <c r="H27" s="22">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="I27" s="21">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="I27" s="21">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="2">
         <v>23</v>
       </c>
       <c r="D28" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3844</v>
       </c>
       <c r="E28" s="9">
@@ -15258,29 +15235,29 @@
         <v>26908</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128.13333333333333</v>
       </c>
       <c r="G28" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="H28" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.6</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="2">
         <v>24</v>
       </c>
       <c r="D29" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
       <c r="E29" s="9">
@@ -15288,29 +15265,29 @@
         <v>28672</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>136.53333333333333</v>
       </c>
       <c r="G29" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.4</v>
       </c>
       <c r="I29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="2">
         <v>25</v>
       </c>
       <c r="D30" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4356</v>
       </c>
       <c r="E30" s="9">
@@ -15318,29 +15295,29 @@
         <v>30492</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145.19999999999999</v>
       </c>
       <c r="G30" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="I30" s="21">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="I30" s="21">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="2">
         <v>26</v>
       </c>
       <c r="D31" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4624</v>
       </c>
       <c r="E31" s="9">
@@ -15348,29 +15325,29 @@
         <v>34680</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154.13333333333333</v>
       </c>
       <c r="G31" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.8</v>
       </c>
       <c r="I31" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="2">
         <v>27</v>
       </c>
       <c r="D32" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="E32" s="9">
@@ -15378,29 +15355,29 @@
         <v>36750</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>163.33333333333334</v>
       </c>
       <c r="G32" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="H32" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.6</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="2">
         <v>28</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5184</v>
       </c>
       <c r="E33" s="9">
@@ -15408,29 +15385,29 @@
         <v>38880</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>172.8</v>
       </c>
       <c r="G33" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="H33" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.6</v>
       </c>
       <c r="I33" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="2">
         <v>29</v>
       </c>
       <c r="D34" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5476</v>
       </c>
       <c r="E34" s="9">
@@ -15438,30 +15415,30 @@
         <v>41070</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>182.53333333333333</v>
       </c>
       <c r="G34" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="H34" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.6</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
       <c r="B35" s="4"/>
       <c r="C35" s="2">
         <v>30</v>
       </c>
       <c r="D35" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5776</v>
       </c>
       <c r="E35" s="9">
@@ -15469,29 +15446,29 @@
         <v>43320</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>192.53333333333333</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.6</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="2">
         <v>31</v>
       </c>
       <c r="D36" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6084</v>
       </c>
       <c r="E36" s="9">
@@ -15499,29 +15476,29 @@
         <v>48672</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>202.8</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>203</v>
       </c>
       <c r="H36" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.6</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="2">
         <v>32</v>
       </c>
       <c r="D37" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
       <c r="E37" s="9">
@@ -15529,29 +15506,29 @@
         <v>51200</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>213.33333333333334</v>
       </c>
       <c r="G37" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>213</v>
       </c>
       <c r="H37" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.6</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="2">
         <v>33</v>
       </c>
       <c r="D38" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6724</v>
       </c>
       <c r="E38" s="9">
@@ -15575,13 +15552,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="2">
         <v>34</v>
       </c>
       <c r="D39" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7056</v>
       </c>
       <c r="E39" s="9">
@@ -15605,13 +15582,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="2">
         <v>35</v>
       </c>
       <c r="D40" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7396</v>
       </c>
       <c r="E40" s="9">
@@ -15635,13 +15612,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="2">
         <v>36</v>
       </c>
       <c r="D41" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7744</v>
       </c>
       <c r="E41" s="9">
@@ -15665,13 +15642,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="2">
         <v>37</v>
       </c>
       <c r="D42" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8100</v>
       </c>
       <c r="E42" s="9">
@@ -15695,13 +15672,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="2">
         <v>38</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8464</v>
       </c>
       <c r="E43" s="9">
@@ -15725,13 +15702,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="2">
         <v>39</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8836</v>
       </c>
       <c r="E44" s="9">
@@ -15755,13 +15732,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="2">
         <v>40</v>
       </c>
       <c r="D45" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
       <c r="E45" s="9">
@@ -15785,13 +15762,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="2">
         <v>41</v>
       </c>
       <c r="D46" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9604</v>
       </c>
       <c r="E46" s="9">
@@ -15815,13 +15792,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="2">
         <v>42</v>
       </c>
       <c r="D47" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="E47" s="9">
@@ -15845,13 +15822,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="2">
         <v>43</v>
       </c>
       <c r="D48" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10404</v>
       </c>
       <c r="E48" s="9">
@@ -15875,13 +15852,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="2">
         <v>44</v>
       </c>
       <c r="D49" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10816</v>
       </c>
       <c r="E49" s="9">
@@ -15905,13 +15882,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="2">
         <v>45</v>
       </c>
       <c r="D50" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11236</v>
       </c>
       <c r="E50" s="9">
@@ -15935,13 +15912,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="2">
         <v>46</v>
       </c>
       <c r="D51" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11664</v>
       </c>
       <c r="E51" s="9">
@@ -15965,13 +15942,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="2">
         <v>47</v>
       </c>
       <c r="D52" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12100</v>
       </c>
       <c r="E52" s="9">
@@ -15995,13 +15972,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="2">
         <v>48</v>
       </c>
       <c r="D53" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12544</v>
       </c>
       <c r="E53" s="9">
@@ -16025,13 +16002,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="2">
         <v>49</v>
       </c>
       <c r="D54" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12996</v>
       </c>
       <c r="E54" s="9">
@@ -16055,13 +16032,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="2">
         <v>50</v>
       </c>
       <c r="D55" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13456</v>
       </c>
       <c r="E55" s="9">
@@ -16085,13 +16062,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="2">
         <v>51</v>
       </c>
       <c r="D56" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13924</v>
       </c>
       <c r="E56" s="9">
@@ -16115,13 +16092,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="2">
         <v>52</v>
       </c>
       <c r="D57" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>14400</v>
       </c>
       <c r="E57" s="9">
@@ -16145,13 +16122,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="2">
         <v>53</v>
       </c>
       <c r="D58" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>14884</v>
       </c>
       <c r="E58" s="9">
@@ -16175,13 +16152,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="2">
         <v>54</v>
       </c>
       <c r="D59" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15376</v>
       </c>
       <c r="E59" s="9">
@@ -16205,13 +16182,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="2">
         <v>55</v>
       </c>
       <c r="D60" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15876</v>
       </c>
       <c r="E60" s="9">
@@ -16235,13 +16212,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="2">
         <v>56</v>
       </c>
       <c r="D61" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
       <c r="E61" s="9">
@@ -16265,13 +16242,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="2">
         <v>57</v>
       </c>
       <c r="D62" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="E62" s="9">
@@ -16295,13 +16272,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="2">
         <v>58</v>
       </c>
       <c r="D63" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>17424</v>
       </c>
       <c r="E63" s="9">
@@ -16325,13 +16302,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="2">
         <v>59</v>
       </c>
       <c r="D64" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>17956</v>
       </c>
       <c r="E64" s="9">
@@ -16355,13 +16332,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="2">
         <v>60</v>
       </c>
       <c r="D65" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>18496</v>
       </c>
       <c r="E65" s="9">
@@ -16385,13 +16362,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="2">
         <v>61</v>
       </c>
       <c r="D66" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19044</v>
       </c>
       <c r="E66" s="9">
@@ -16415,13 +16392,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="2">
         <v>62</v>
       </c>
       <c r="D67" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19600</v>
       </c>
       <c r="E67" s="9">
@@ -16445,13 +16422,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="2">
         <v>63</v>
       </c>
       <c r="D68" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20164</v>
       </c>
       <c r="E68" s="9">
@@ -16475,13 +16452,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="2">
         <v>64</v>
       </c>
       <c r="D69" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20736</v>
       </c>
       <c r="E69" s="9">
@@ -16505,13 +16482,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="2">
         <v>65</v>
       </c>
       <c r="D70" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>21316</v>
       </c>
       <c r="E70" s="9">
@@ -16535,7 +16512,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="2">
         <v>66</v>
@@ -16565,7 +16542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="2">
         <v>67</v>
@@ -16595,7 +16572,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="2">
         <v>68</v>
@@ -16625,7 +16602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="2">
         <v>69</v>
@@ -16655,7 +16632,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="2">
         <v>70</v>
@@ -16685,7 +16662,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="2">
         <v>71</v>
@@ -16715,7 +16692,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="2">
         <v>72</v>
@@ -16745,7 +16722,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="C78" s="2">
         <v>73</v>
@@ -16775,7 +16752,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="2">
         <v>74</v>
@@ -16805,7 +16782,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="2">
         <v>75</v>
@@ -16835,7 +16812,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="2">
         <v>76</v>
@@ -16865,7 +16842,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="2">
         <v>77</v>
@@ -16895,7 +16872,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="2">
         <v>78</v>
@@ -16925,7 +16902,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="2">
         <v>79</v>
@@ -16955,7 +16932,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="2">
         <v>80</v>
@@ -16985,7 +16962,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="2">
         <v>81</v>
@@ -17015,7 +16992,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="2">
         <v>82</v>
@@ -17045,7 +17022,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="2">
         <v>83</v>
@@ -17075,7 +17052,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="2">
         <v>84</v>
@@ -17105,7 +17082,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="2">
         <v>85</v>
@@ -17135,7 +17112,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
       <c r="C91" s="2">
         <v>86</v>
@@ -17165,7 +17142,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="2">
         <v>87</v>
@@ -17195,7 +17172,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
       <c r="C93" s="2">
         <v>88</v>
@@ -17225,7 +17202,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="2">
         <v>89</v>
@@ -17255,7 +17232,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
       <c r="C95" s="2">
         <v>90</v>
@@ -17285,7 +17262,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="4"/>
       <c r="C96" s="2">
         <v>91</v>
@@ -17315,7 +17292,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="2">
         <v>92</v>
@@ -17345,7 +17322,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
       <c r="C98" s="2">
         <v>93</v>
@@ -17375,7 +17352,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="2">
         <v>94</v>
@@ -17405,7 +17382,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="2">
         <v>95</v>
@@ -17435,7 +17412,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="C101" s="2">
         <v>96</v>
@@ -17465,7 +17442,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
       <c r="C102" s="2">
         <v>97</v>
@@ -17495,7 +17472,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="2">
         <v>98</v>
@@ -17525,7 +17502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
       <c r="C104" s="2">
         <v>99</v>
@@ -17555,7 +17532,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
       <c r="C105" s="2">
         <v>100</v>
@@ -17585,301 +17562,301 @@
         <v>311</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E204" s="4"/>
     </row>
   </sheetData>
@@ -17894,957 +17871,436 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.5625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.6875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="41" customWidth="1"/>
-    <col min="6" max="6" width="10" style="41" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="41" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="41" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="41" customWidth="1"/>
-    <col min="12" max="12" width="10" style="41" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="41" customWidth="1"/>
-    <col min="15" max="15" width="11" style="41" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="32.75" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="41" customWidth="1"/>
+    <col min="3" max="3" width="11" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="41" customWidth="1"/>
+    <col min="5" max="5" width="10" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="41" customWidth="1"/>
+    <col min="11" max="11" width="10" style="41" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="41" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="41" customWidth="1"/>
+    <col min="14" max="14" width="11" style="41" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="38" t="s">
+      <c r="N1" s="66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="63">
+        <v>1</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="63">
+        <v>50</v>
+      </c>
+      <c r="E2" s="63">
+        <v>70</v>
+      </c>
+      <c r="F2" s="63">
+        <v>90</v>
+      </c>
+      <c r="G2" s="63">
+        <v>110</v>
+      </c>
+      <c r="H2" s="63">
+        <v>130</v>
+      </c>
+      <c r="I2" s="63">
+        <v>150</v>
+      </c>
+      <c r="J2" s="63">
+        <v>170</v>
+      </c>
+      <c r="K2" s="63">
+        <v>190</v>
+      </c>
+      <c r="L2" s="63">
+        <v>210</v>
+      </c>
+      <c r="M2" s="63">
+        <v>230</v>
+      </c>
+      <c r="N2" s="63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="63">
-        <v>1</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="B3" s="63">
+        <v>2</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="63">
-        <v>50</v>
-      </c>
-      <c r="F2" s="63">
-        <v>70</v>
-      </c>
-      <c r="G2" s="63">
-        <v>90</v>
-      </c>
-      <c r="H2" s="63">
-        <v>110</v>
-      </c>
-      <c r="I2" s="63">
-        <v>130</v>
-      </c>
-      <c r="J2" s="63">
-        <v>150</v>
-      </c>
-      <c r="K2" s="63">
-        <v>170</v>
-      </c>
-      <c r="L2" s="63">
-        <v>190</v>
-      </c>
-      <c r="M2" s="63">
-        <v>210</v>
-      </c>
-      <c r="N2" s="63">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A3" s="63" t="s">
+      <c r="D3" s="63">
+        <v>430</v>
+      </c>
+      <c r="E3" s="63">
+        <v>460</v>
+      </c>
+      <c r="F3" s="63">
+        <v>490</v>
+      </c>
+      <c r="G3" s="63">
+        <v>520</v>
+      </c>
+      <c r="H3" s="63">
+        <v>550</v>
+      </c>
+      <c r="I3" s="63">
+        <v>580</v>
+      </c>
+      <c r="J3" s="63">
+        <v>610</v>
+      </c>
+      <c r="K3" s="63">
+        <v>640</v>
+      </c>
+      <c r="L3" s="63">
+        <v>670</v>
+      </c>
+      <c r="M3" s="63">
+        <v>700</v>
+      </c>
+      <c r="N3" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="63">
+        <v>3</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="63">
+        <v>700</v>
+      </c>
+      <c r="E4" s="63">
+        <v>740</v>
+      </c>
+      <c r="F4" s="63">
+        <v>780</v>
+      </c>
+      <c r="G4" s="63">
+        <v>820</v>
+      </c>
+      <c r="H4" s="63">
+        <v>860</v>
+      </c>
+      <c r="I4" s="63">
+        <v>900</v>
+      </c>
+      <c r="J4" s="63">
+        <v>940</v>
+      </c>
+      <c r="K4" s="63">
+        <v>980</v>
+      </c>
+      <c r="L4" s="63">
+        <v>1020</v>
+      </c>
+      <c r="M4" s="63">
+        <v>1060</v>
+      </c>
+      <c r="N4" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="63">
-        <v>2</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="B5" s="63">
+        <v>4</v>
+      </c>
+      <c r="C5" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="63">
-        <v>430</v>
-      </c>
-      <c r="F3" s="63">
-        <v>460</v>
-      </c>
-      <c r="G3" s="63">
-        <v>490</v>
-      </c>
-      <c r="H3" s="63">
-        <v>520</v>
-      </c>
-      <c r="I3" s="63">
-        <v>550</v>
-      </c>
-      <c r="J3" s="63">
-        <v>580</v>
-      </c>
-      <c r="K3" s="63">
-        <v>610</v>
-      </c>
-      <c r="L3" s="63">
-        <v>640</v>
-      </c>
-      <c r="M3" s="63">
-        <v>670</v>
-      </c>
-      <c r="N3" s="63">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A4" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="63">
-        <v>3</v>
-      </c>
-      <c r="D4" s="64" t="s">
+      <c r="D5" s="63">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="63">
+        <v>1250</v>
+      </c>
+      <c r="F5" s="63">
+        <v>1300</v>
+      </c>
+      <c r="G5" s="63">
+        <v>1350</v>
+      </c>
+      <c r="H5" s="63">
+        <v>1400</v>
+      </c>
+      <c r="I5" s="63">
+        <v>1450</v>
+      </c>
+      <c r="J5" s="63">
+        <v>1500</v>
+      </c>
+      <c r="K5" s="63">
+        <v>1550</v>
+      </c>
+      <c r="L5" s="63">
+        <v>1600</v>
+      </c>
+      <c r="M5" s="63">
+        <v>1650</v>
+      </c>
+      <c r="N5" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="63">
+        <v>5</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="63">
-        <v>700</v>
-      </c>
-      <c r="F4" s="63">
-        <v>740</v>
-      </c>
-      <c r="G4" s="63">
-        <v>780</v>
-      </c>
-      <c r="H4" s="63">
-        <v>820</v>
-      </c>
-      <c r="I4" s="63">
-        <v>860</v>
-      </c>
-      <c r="J4" s="63">
-        <v>900</v>
-      </c>
-      <c r="K4" s="63">
-        <v>940</v>
-      </c>
-      <c r="L4" s="63">
-        <v>980</v>
-      </c>
-      <c r="M4" s="63">
-        <v>1020</v>
-      </c>
-      <c r="N4" s="63">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A5" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="63">
-        <v>4</v>
-      </c>
-      <c r="D5" s="64" t="s">
+      <c r="D6" s="63">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="63">
+        <v>2100</v>
+      </c>
+      <c r="F6" s="63">
+        <v>2200</v>
+      </c>
+      <c r="G6" s="63">
+        <v>2300</v>
+      </c>
+      <c r="H6" s="63">
+        <v>2400</v>
+      </c>
+      <c r="I6" s="63">
+        <v>2500</v>
+      </c>
+      <c r="J6" s="63">
+        <v>2600</v>
+      </c>
+      <c r="K6" s="63">
+        <v>2700</v>
+      </c>
+      <c r="L6" s="63">
+        <v>2800</v>
+      </c>
+      <c r="M6" s="63">
+        <v>2900</v>
+      </c>
+      <c r="N6" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="63">
+        <v>6</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="63">
-        <v>1200</v>
-      </c>
-      <c r="F5" s="63">
-        <v>1250</v>
-      </c>
-      <c r="G5" s="63">
-        <v>1300</v>
-      </c>
-      <c r="H5" s="63">
-        <v>1350</v>
-      </c>
-      <c r="I5" s="63">
-        <v>1400</v>
-      </c>
-      <c r="J5" s="63">
-        <v>1450</v>
-      </c>
-      <c r="K5" s="63">
-        <v>1500</v>
-      </c>
-      <c r="L5" s="63">
-        <v>1550</v>
-      </c>
-      <c r="M5" s="63">
-        <v>1600</v>
-      </c>
-      <c r="N5" s="63">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A6" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="63">
-        <v>5</v>
-      </c>
-      <c r="D6" s="64" t="s">
+      <c r="D7" s="63">
+        <v>4500</v>
+      </c>
+      <c r="E7" s="63">
+        <v>4650</v>
+      </c>
+      <c r="F7" s="63">
+        <v>4800</v>
+      </c>
+      <c r="G7" s="63">
+        <v>4950</v>
+      </c>
+      <c r="H7" s="63">
+        <v>5100</v>
+      </c>
+      <c r="I7" s="63">
+        <v>5250</v>
+      </c>
+      <c r="J7" s="63">
+        <v>5400</v>
+      </c>
+      <c r="K7" s="63">
+        <v>5550</v>
+      </c>
+      <c r="L7" s="63">
+        <v>5700</v>
+      </c>
+      <c r="M7" s="63">
+        <v>5850</v>
+      </c>
+      <c r="N7" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="63">
+        <v>7</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="63">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="63">
-        <v>2100</v>
-      </c>
-      <c r="G6" s="63">
-        <v>2200</v>
-      </c>
-      <c r="H6" s="63">
-        <v>2300</v>
-      </c>
-      <c r="I6" s="63">
-        <v>2400</v>
-      </c>
-      <c r="J6" s="63">
-        <v>2500</v>
-      </c>
-      <c r="K6" s="63">
-        <v>2600</v>
-      </c>
-      <c r="L6" s="63">
-        <v>2700</v>
-      </c>
-      <c r="M6" s="63">
-        <v>2800</v>
-      </c>
-      <c r="N6" s="63">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A7" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="63">
-        <v>6</v>
-      </c>
-      <c r="D7" s="64" t="s">
+      <c r="D8" s="63">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="63">
+        <v>7200</v>
+      </c>
+      <c r="F8" s="63">
+        <v>7400</v>
+      </c>
+      <c r="G8" s="63">
+        <v>7600</v>
+      </c>
+      <c r="H8" s="63">
+        <v>7800</v>
+      </c>
+      <c r="I8" s="63">
+        <v>8000</v>
+      </c>
+      <c r="J8" s="63">
+        <v>8200</v>
+      </c>
+      <c r="K8" s="63">
+        <v>8400</v>
+      </c>
+      <c r="L8" s="63">
+        <v>8600</v>
+      </c>
+      <c r="M8" s="63">
+        <v>8800</v>
+      </c>
+      <c r="N8" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="63">
+        <v>8</v>
+      </c>
+      <c r="C9" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="63">
-        <v>4500</v>
-      </c>
-      <c r="F7" s="63">
-        <v>4650</v>
-      </c>
-      <c r="G7" s="63">
-        <v>4800</v>
-      </c>
-      <c r="H7" s="63">
-        <v>4950</v>
-      </c>
-      <c r="I7" s="63">
-        <v>5100</v>
-      </c>
-      <c r="J7" s="63">
-        <v>5250</v>
-      </c>
-      <c r="K7" s="63">
-        <v>5400</v>
-      </c>
-      <c r="L7" s="63">
-        <v>5550</v>
-      </c>
-      <c r="M7" s="63">
-        <v>5700</v>
-      </c>
-      <c r="N7" s="63">
-        <v>5850</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A8" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="63">
-        <v>7</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="63">
-        <v>7000</v>
-      </c>
-      <c r="F8" s="63">
-        <v>7200</v>
-      </c>
-      <c r="G8" s="63">
-        <v>7400</v>
-      </c>
-      <c r="H8" s="63">
-        <v>7600</v>
-      </c>
-      <c r="I8" s="63">
-        <v>7800</v>
-      </c>
-      <c r="J8" s="63">
-        <v>8000</v>
-      </c>
-      <c r="K8" s="63">
-        <v>8200</v>
-      </c>
-      <c r="L8" s="63">
-        <v>8400</v>
-      </c>
-      <c r="M8" s="63">
-        <v>8600</v>
-      </c>
-      <c r="N8" s="63">
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A9" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="63">
-        <v>8</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>95</v>
+      <c r="D9" s="63">
+        <v>10000</v>
       </c>
       <c r="E9" s="63">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="F9" s="63">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="G9" s="63">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="H9" s="63">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="I9" s="63">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="J9" s="63">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="K9" s="63">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L9" s="63">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M9" s="63">
-        <v>14000</v>
-      </c>
-      <c r="N9" s="63">
         <v>14500</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="12" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A46" s="167" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="167"/>
-      <c r="L46" s="167"/>
-      <c r="M46" s="167"/>
-      <c r="N46" s="167"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A47" s="168"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="168"/>
-      <c r="K47" s="168"/>
-      <c r="L47" s="168"/>
-      <c r="M47" s="168"/>
-      <c r="N47" s="168"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A48" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="K48" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="M48" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="N48" s="38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A49" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="63">
-        <v>1</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="65">
-        <f>POWER((3+0.2*(E2:N2-25)),2)</f>
-        <v>64</v>
-      </c>
-      <c r="F49" s="65">
-        <f>POWER((3+0.2*(F2:P2-25)),2)</f>
-        <v>144</v>
-      </c>
-      <c r="G49" s="65">
-        <f>POWER((3+0.2*(G2:Q2-25)),2)</f>
-        <v>256</v>
-      </c>
-      <c r="H49" s="65">
-        <f>POWER((3+0.2*(H2:R2-25)),2)</f>
-        <v>400</v>
-      </c>
-      <c r="I49" s="65">
-        <f>POWER((3+0.2*(I2:S2-25)),2)</f>
-        <v>576</v>
-      </c>
-      <c r="J49" s="65">
-        <f>POWER((3+0.2*(J2:T2-25)),2)</f>
-        <v>784</v>
-      </c>
-      <c r="K49" s="65">
-        <f>POWER((3+0.2*(K2:U2-25)),2)</f>
-        <v>1024</v>
-      </c>
-      <c r="L49" s="65">
-        <f>POWER((3+0.2*(L2:V2-25)),2)</f>
-        <v>1296</v>
-      </c>
-      <c r="M49" s="65">
-        <f>POWER((3+0.2*(M2:W2-25)),2)</f>
-        <v>1600</v>
-      </c>
-      <c r="N49" s="65">
-        <f>POWER((3+0.2*(N2:X2-25)),2)</f>
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A50" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="63">
-        <v>2</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="65">
-        <f>POWER((3+0.2*(E3:N3-25)),2)</f>
-        <v>7056</v>
-      </c>
-      <c r="F50" s="65">
-        <f>POWER((3+0.2*(F3:P3-25)),2)</f>
-        <v>8100</v>
-      </c>
-      <c r="G50" s="65">
-        <f>POWER((3+0.2*(G3:Q3-25)),2)</f>
-        <v>9216</v>
-      </c>
-      <c r="H50" s="65">
-        <f>POWER((3+0.2*(H3:R3-25)),2)</f>
-        <v>10404</v>
-      </c>
-      <c r="I50" s="65">
-        <f>POWER((3+0.2*(I3:S3-25)),2)</f>
-        <v>11664</v>
-      </c>
-      <c r="J50" s="65">
-        <f>POWER((3+0.2*(J3:T3-25)),2)</f>
-        <v>12996</v>
-      </c>
-      <c r="K50" s="65">
-        <f>POWER((3+0.2*(K3:U3-25)),2)</f>
-        <v>14400</v>
-      </c>
-      <c r="L50" s="65">
-        <f>POWER((3+0.2*(L3:V3-25)),2)</f>
-        <v>15876</v>
-      </c>
-      <c r="M50" s="65">
-        <f>POWER((3+0.2*(M3:W3-25)),2)</f>
-        <v>17424</v>
-      </c>
-      <c r="N50" s="65">
-        <f>POWER((3+0.2*(N3:X3-25)),2)</f>
-        <v>19044</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A51" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="63">
-        <v>3</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="65">
-        <f>POWER((3+0.2*(E4:N4-25)),2)</f>
-        <v>19044</v>
-      </c>
-      <c r="F51" s="65">
-        <f>POWER((3+0.2*(F4:P4-25)),2)</f>
-        <v>21316</v>
-      </c>
-      <c r="G51" s="65">
-        <f>POWER((3+0.2*(G4:Q4-25)),2)</f>
-        <v>23716</v>
-      </c>
-      <c r="H51" s="65">
-        <f>POWER((3+0.2*(H4:R4-25)),2)</f>
-        <v>26244</v>
-      </c>
-      <c r="I51" s="65">
-        <f>POWER((3+0.2*(I4:S4-25)),2)</f>
-        <v>28900</v>
-      </c>
-      <c r="J51" s="65">
-        <f>POWER((3+0.2*(J4:T4-25)),2)</f>
-        <v>31684</v>
-      </c>
-      <c r="K51" s="65">
-        <f>POWER((3+0.2*(K4:U4-25)),2)</f>
-        <v>34596</v>
-      </c>
-      <c r="L51" s="65">
-        <f>POWER((3+0.2*(L4:V4-25)),2)</f>
-        <v>37636</v>
-      </c>
-      <c r="M51" s="65">
-        <f>POWER((3+0.2*(M4:W4-25)),2)</f>
-        <v>40804</v>
-      </c>
-      <c r="N51" s="65">
-        <f>POWER((3+0.2*(N4:X4-25)),2)</f>
-        <v>44100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A52" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="63">
-        <v>4</v>
-      </c>
-      <c r="D52" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="65">
-        <f>POWER((3+0.2*(E5:N5-25)),2)</f>
-        <v>56644</v>
-      </c>
-      <c r="F52" s="65">
-        <f>POWER((3+0.2*(F5:P5-25)),2)</f>
-        <v>61504</v>
-      </c>
-      <c r="G52" s="65">
-        <f>POWER((3+0.2*(G5:Q5-25)),2)</f>
-        <v>66564</v>
-      </c>
-      <c r="H52" s="65">
-        <f>POWER((3+0.2*(H5:R5-25)),2)</f>
-        <v>71824</v>
-      </c>
-      <c r="I52" s="65">
-        <f>POWER((3+0.2*(I5:S5-25)),2)</f>
-        <v>77284</v>
-      </c>
-      <c r="J52" s="65">
-        <f>POWER((3+0.2*(J5:T5-25)),2)</f>
-        <v>82944</v>
-      </c>
-      <c r="K52" s="65">
-        <f>POWER((3+0.2*(K5:U5-25)),2)</f>
-        <v>88804</v>
-      </c>
-      <c r="L52" s="65">
-        <f>POWER((3+0.2*(L5:V5-25)),2)</f>
-        <v>94864</v>
-      </c>
-      <c r="M52" s="65">
-        <f>POWER((3+0.2*(M5:W5-25)),2)</f>
-        <v>101124</v>
-      </c>
-      <c r="N52" s="65">
-        <f>POWER((3+0.2*(N5:X5-25)),2)</f>
-        <v>107584</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A53" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="63">
-        <v>5</v>
-      </c>
-      <c r="D53" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="65">
-        <f>POWER((3+0.2*(E6:N6-25)),2)</f>
-        <v>158404</v>
-      </c>
-      <c r="F53" s="65">
-        <f>POWER((3+0.2*(F6:P6-25)),2)</f>
-        <v>174724</v>
-      </c>
-      <c r="G53" s="65">
-        <f>POWER((3+0.2*(G6:Q6-25)),2)</f>
-        <v>191844</v>
-      </c>
-      <c r="H53" s="65">
-        <f>POWER((3+0.2*(H6:R6-25)),2)</f>
-        <v>209764</v>
-      </c>
-      <c r="I53" s="65">
-        <f>POWER((3+0.2*(I6:S6-25)),2)</f>
-        <v>228484</v>
-      </c>
-      <c r="J53" s="65">
-        <f>POWER((3+0.2*(J6:T6-25)),2)</f>
-        <v>248004</v>
-      </c>
-      <c r="K53" s="65">
-        <f>POWER((3+0.2*(K6:U6-25)),2)</f>
-        <v>268324</v>
-      </c>
-      <c r="L53" s="65">
-        <f>POWER((3+0.2*(L6:V6-25)),2)</f>
-        <v>289444</v>
-      </c>
-      <c r="M53" s="65">
-        <f>POWER((3+0.2*(M6:W6-25)),2)</f>
-        <v>311364</v>
-      </c>
-      <c r="N53" s="65">
-        <f>POWER((3+0.2*(N6:X6-25)),2)</f>
-        <v>334084</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A54" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="63">
-        <v>6</v>
-      </c>
-      <c r="D54" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="65">
-        <f>POWER((3+0.2*(E7:N7-25)),2)</f>
-        <v>806404</v>
-      </c>
-      <c r="F54" s="65">
-        <f>POWER((3+0.2*(F7:P7-25)),2)</f>
-        <v>861184</v>
-      </c>
-      <c r="G54" s="65">
-        <f>POWER((3+0.2*(G7:Q7-25)),2)</f>
-        <v>917764</v>
-      </c>
-      <c r="H54" s="65">
-        <f>POWER((3+0.2*(H7:R7-25)),2)</f>
-        <v>976144</v>
-      </c>
-      <c r="I54" s="65">
-        <f>POWER((3+0.2*(I7:S7-25)),2)</f>
-        <v>1036324</v>
-      </c>
-      <c r="J54" s="65">
-        <f>POWER((3+0.2*(J7:T7-25)),2)</f>
-        <v>1098304</v>
-      </c>
-      <c r="K54" s="65">
-        <f>POWER((3+0.2*(K7:U7-25)),2)</f>
-        <v>1162084</v>
-      </c>
-      <c r="L54" s="65">
-        <f>POWER((3+0.2*(L7:V7-25)),2)</f>
-        <v>1227664</v>
-      </c>
-      <c r="M54" s="65">
-        <f>POWER((3+0.2*(M7:W7-25)),2)</f>
-        <v>1295044</v>
-      </c>
-      <c r="N54" s="65">
-        <f>POWER((3+0.2*(N7:X7-25)),2)</f>
-        <v>1364224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A55" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="63">
-        <v>7</v>
-      </c>
-      <c r="D55" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="65">
-        <f>POWER((3+0.2*(E8:N8-25)),2)</f>
-        <v>1954404</v>
-      </c>
-      <c r="F55" s="65">
-        <f>POWER((3+0.2*(F8:P8-25)),2)</f>
-        <v>2067844</v>
-      </c>
-      <c r="G55" s="65">
-        <f>POWER((3+0.2*(G8:Q8-25)),2)</f>
-        <v>2184484</v>
-      </c>
-      <c r="H55" s="65">
-        <f>POWER((3+0.2*(H8:R8-25)),2)</f>
-        <v>2304324</v>
-      </c>
-      <c r="I55" s="65">
-        <f>POWER((3+0.2*(I8:S8-25)),2)</f>
-        <v>2427364</v>
-      </c>
-      <c r="J55" s="65">
-        <f>POWER((3+0.2*(J8:T8-25)),2)</f>
-        <v>2553604</v>
-      </c>
-      <c r="K55" s="65">
-        <f>POWER((3+0.2*(K8:U8-25)),2)</f>
-        <v>2683044</v>
-      </c>
-      <c r="L55" s="65">
-        <f>POWER((3+0.2*(L8:V8-25)),2)</f>
-        <v>2815684</v>
-      </c>
-      <c r="M55" s="65">
-        <f>POWER((3+0.2*(M8:W8-25)),2)</f>
-        <v>2951524</v>
-      </c>
-      <c r="N55" s="65">
-        <f>POWER((3+0.2*(N8:X8-25)),2)</f>
-        <v>3090564</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A56" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="63">
-        <v>8</v>
-      </c>
-      <c r="D56" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="65">
-        <f>POWER((3+0.2*(E9:N9-25)),2)</f>
-        <v>3992004</v>
-      </c>
-      <c r="F56" s="65">
-        <f>POWER((3+0.2*(F9:P9-25)),2)</f>
-        <v>4401604</v>
-      </c>
-      <c r="G56" s="65">
-        <f>POWER((3+0.2*(G9:Q9-25)),2)</f>
-        <v>4831204</v>
-      </c>
-      <c r="H56" s="65">
-        <f>POWER((3+0.2*(H9:R9-25)),2)</f>
-        <v>5280804</v>
-      </c>
-      <c r="I56" s="65">
-        <f>POWER((3+0.2*(I9:S9-25)),2)</f>
-        <v>5750404</v>
-      </c>
-      <c r="J56" s="65">
-        <f>POWER((3+0.2*(J9:T9-25)),2)</f>
-        <v>6240004</v>
-      </c>
-      <c r="K56" s="65">
-        <f>POWER((3+0.2*(K9:U9-25)),2)</f>
-        <v>6749604</v>
-      </c>
-      <c r="L56" s="65">
-        <f>POWER((3+0.2*(L9:V9-25)),2)</f>
-        <v>7279204</v>
-      </c>
-      <c r="M56" s="65">
-        <f>POWER((3+0.2*(M9:W9-25)),2)</f>
-        <v>7828804</v>
-      </c>
-      <c r="N56" s="65">
-        <f>POWER((3+0.2*(N9:X9-25)),2)</f>
-        <v>8398404</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="D59" s="169" t="s">
-        <v>184</v>
-      </c>
-      <c r="E59" s="169"/>
-      <c r="F59" s="169"/>
-    </row>
+      <c r="N9" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A46:N47"/>
-    <mergeCell ref="D59:F59"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18853,13 +18309,495 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="63">
+        <v>1</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="65">
+        <f>POWER((3+0.2*('무기 DB'!D2:M2-25)),2)</f>
+        <v>64</v>
+      </c>
+      <c r="E2" s="65">
+        <f>POWER((3+0.2*('무기 DB'!E2:O2-25)),2)</f>
+        <v>144</v>
+      </c>
+      <c r="F2" s="65">
+        <f>POWER((3+0.2*('무기 DB'!F2:P2-25)),2)</f>
+        <v>256</v>
+      </c>
+      <c r="G2" s="65">
+        <f>POWER((3+0.2*('무기 DB'!G2:Q2-25)),2)</f>
+        <v>400</v>
+      </c>
+      <c r="H2" s="65">
+        <f>POWER((3+0.2*('무기 DB'!H2:R2-25)),2)</f>
+        <v>576</v>
+      </c>
+      <c r="I2" s="65">
+        <f>POWER((3+0.2*('무기 DB'!I2:S2-25)),2)</f>
+        <v>784</v>
+      </c>
+      <c r="J2" s="65">
+        <f>POWER((3+0.2*('무기 DB'!J2:T2-25)),2)</f>
+        <v>1024</v>
+      </c>
+      <c r="K2" s="65">
+        <f>POWER((3+0.2*('무기 DB'!K2:U2-25)),2)</f>
+        <v>1296</v>
+      </c>
+      <c r="L2" s="65">
+        <f>POWER((3+0.2*('무기 DB'!L2:V2-25)),2)</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="63">
+        <v>2</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="65">
+        <f>POWER((3+0.2*('무기 DB'!D3:M3-25)),2)</f>
+        <v>7056</v>
+      </c>
+      <c r="E3" s="65">
+        <f>POWER((3+0.2*('무기 DB'!E3:O3-25)),2)</f>
+        <v>8100</v>
+      </c>
+      <c r="F3" s="65">
+        <f>POWER((3+0.2*('무기 DB'!F3:P3-25)),2)</f>
+        <v>9216</v>
+      </c>
+      <c r="G3" s="65">
+        <f>POWER((3+0.2*('무기 DB'!G3:Q3-25)),2)</f>
+        <v>10404</v>
+      </c>
+      <c r="H3" s="65">
+        <f>POWER((3+0.2*('무기 DB'!H3:R3-25)),2)</f>
+        <v>11664</v>
+      </c>
+      <c r="I3" s="65">
+        <f>POWER((3+0.2*('무기 DB'!I3:S3-25)),2)</f>
+        <v>12996</v>
+      </c>
+      <c r="J3" s="65">
+        <f>POWER((3+0.2*('무기 DB'!J3:T3-25)),2)</f>
+        <v>14400</v>
+      </c>
+      <c r="K3" s="65">
+        <f>POWER((3+0.2*('무기 DB'!K3:U3-25)),2)</f>
+        <v>15876</v>
+      </c>
+      <c r="L3" s="65">
+        <f>POWER((3+0.2*('무기 DB'!L3:V3-25)),2)</f>
+        <v>17424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="63">
+        <v>3</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="65">
+        <f>POWER((3+0.2*('무기 DB'!D4:M4-25)),2)</f>
+        <v>19044</v>
+      </c>
+      <c r="E4" s="65">
+        <f>POWER((3+0.2*('무기 DB'!E4:O4-25)),2)</f>
+        <v>21316</v>
+      </c>
+      <c r="F4" s="65">
+        <f>POWER((3+0.2*('무기 DB'!F4:P4-25)),2)</f>
+        <v>23716</v>
+      </c>
+      <c r="G4" s="65">
+        <f>POWER((3+0.2*('무기 DB'!G4:Q4-25)),2)</f>
+        <v>26244</v>
+      </c>
+      <c r="H4" s="65">
+        <f>POWER((3+0.2*('무기 DB'!H4:R4-25)),2)</f>
+        <v>28900</v>
+      </c>
+      <c r="I4" s="65">
+        <f>POWER((3+0.2*('무기 DB'!I4:S4-25)),2)</f>
+        <v>31684</v>
+      </c>
+      <c r="J4" s="65">
+        <f>POWER((3+0.2*('무기 DB'!J4:T4-25)),2)</f>
+        <v>34596</v>
+      </c>
+      <c r="K4" s="65">
+        <f>POWER((3+0.2*('무기 DB'!K4:U4-25)),2)</f>
+        <v>37636</v>
+      </c>
+      <c r="L4" s="65">
+        <f>POWER((3+0.2*('무기 DB'!L4:V4-25)),2)</f>
+        <v>40804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="63">
+        <v>4</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="65">
+        <f>POWER((3+0.2*('무기 DB'!D5:M5-25)),2)</f>
+        <v>56644</v>
+      </c>
+      <c r="E5" s="65">
+        <f>POWER((3+0.2*('무기 DB'!E5:O5-25)),2)</f>
+        <v>61504</v>
+      </c>
+      <c r="F5" s="65">
+        <f>POWER((3+0.2*('무기 DB'!F5:P5-25)),2)</f>
+        <v>66564</v>
+      </c>
+      <c r="G5" s="65">
+        <f>POWER((3+0.2*('무기 DB'!G5:Q5-25)),2)</f>
+        <v>71824</v>
+      </c>
+      <c r="H5" s="65">
+        <f>POWER((3+0.2*('무기 DB'!H5:R5-25)),2)</f>
+        <v>77284</v>
+      </c>
+      <c r="I5" s="65">
+        <f>POWER((3+0.2*('무기 DB'!I5:S5-25)),2)</f>
+        <v>82944</v>
+      </c>
+      <c r="J5" s="65">
+        <f>POWER((3+0.2*('무기 DB'!J5:T5-25)),2)</f>
+        <v>88804</v>
+      </c>
+      <c r="K5" s="65">
+        <f>POWER((3+0.2*('무기 DB'!K5:U5-25)),2)</f>
+        <v>94864</v>
+      </c>
+      <c r="L5" s="65">
+        <f>POWER((3+0.2*('무기 DB'!L5:V5-25)),2)</f>
+        <v>101124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="63">
+        <v>5</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="65">
+        <f>POWER((3+0.2*('무기 DB'!D6:M6-25)),2)</f>
+        <v>158404</v>
+      </c>
+      <c r="E6" s="65">
+        <f>POWER((3+0.2*('무기 DB'!E6:O6-25)),2)</f>
+        <v>174724</v>
+      </c>
+      <c r="F6" s="65">
+        <f>POWER((3+0.2*('무기 DB'!F6:P6-25)),2)</f>
+        <v>191844</v>
+      </c>
+      <c r="G6" s="65">
+        <f>POWER((3+0.2*('무기 DB'!G6:Q6-25)),2)</f>
+        <v>209764</v>
+      </c>
+      <c r="H6" s="65">
+        <f>POWER((3+0.2*('무기 DB'!H6:R6-25)),2)</f>
+        <v>228484</v>
+      </c>
+      <c r="I6" s="65">
+        <f>POWER((3+0.2*('무기 DB'!I6:S6-25)),2)</f>
+        <v>248004</v>
+      </c>
+      <c r="J6" s="65">
+        <f>POWER((3+0.2*('무기 DB'!J6:T6-25)),2)</f>
+        <v>268324</v>
+      </c>
+      <c r="K6" s="65">
+        <f>POWER((3+0.2*('무기 DB'!K6:U6-25)),2)</f>
+        <v>289444</v>
+      </c>
+      <c r="L6" s="65">
+        <f>POWER((3+0.2*('무기 DB'!L6:V6-25)),2)</f>
+        <v>311364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="63">
+        <v>6</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="65">
+        <f>POWER((3+0.2*('무기 DB'!D7:M7-25)),2)</f>
+        <v>806404</v>
+      </c>
+      <c r="E7" s="65">
+        <f>POWER((3+0.2*('무기 DB'!E7:O7-25)),2)</f>
+        <v>861184</v>
+      </c>
+      <c r="F7" s="65">
+        <f>POWER((3+0.2*('무기 DB'!F7:P7-25)),2)</f>
+        <v>917764</v>
+      </c>
+      <c r="G7" s="65">
+        <f>POWER((3+0.2*('무기 DB'!G7:Q7-25)),2)</f>
+        <v>976144</v>
+      </c>
+      <c r="H7" s="65">
+        <f>POWER((3+0.2*('무기 DB'!H7:R7-25)),2)</f>
+        <v>1036324</v>
+      </c>
+      <c r="I7" s="65">
+        <f>POWER((3+0.2*('무기 DB'!I7:S7-25)),2)</f>
+        <v>1098304</v>
+      </c>
+      <c r="J7" s="65">
+        <f>POWER((3+0.2*('무기 DB'!J7:T7-25)),2)</f>
+        <v>1162084</v>
+      </c>
+      <c r="K7" s="65">
+        <f>POWER((3+0.2*('무기 DB'!K7:U7-25)),2)</f>
+        <v>1227664</v>
+      </c>
+      <c r="L7" s="65">
+        <f>POWER((3+0.2*('무기 DB'!L7:V7-25)),2)</f>
+        <v>1295044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="63">
+        <v>7</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="65">
+        <f>POWER((3+0.2*('무기 DB'!D8:M8-25)),2)</f>
+        <v>1954404</v>
+      </c>
+      <c r="E8" s="65">
+        <f>POWER((3+0.2*('무기 DB'!E8:O8-25)),2)</f>
+        <v>2067844</v>
+      </c>
+      <c r="F8" s="65">
+        <f>POWER((3+0.2*('무기 DB'!F8:P8-25)),2)</f>
+        <v>2184484</v>
+      </c>
+      <c r="G8" s="65">
+        <f>POWER((3+0.2*('무기 DB'!G8:Q8-25)),2)</f>
+        <v>2304324</v>
+      </c>
+      <c r="H8" s="65">
+        <f>POWER((3+0.2*('무기 DB'!H8:R8-25)),2)</f>
+        <v>2427364</v>
+      </c>
+      <c r="I8" s="65">
+        <f>POWER((3+0.2*('무기 DB'!I8:S8-25)),2)</f>
+        <v>2553604</v>
+      </c>
+      <c r="J8" s="65">
+        <f>POWER((3+0.2*('무기 DB'!J8:T8-25)),2)</f>
+        <v>2683044</v>
+      </c>
+      <c r="K8" s="65">
+        <f>POWER((3+0.2*('무기 DB'!K8:U8-25)),2)</f>
+        <v>2815684</v>
+      </c>
+      <c r="L8" s="65">
+        <f>POWER((3+0.2*('무기 DB'!L8:V8-25)),2)</f>
+        <v>2951524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="63">
+        <v>8</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="65">
+        <f>POWER((3+0.2*('무기 DB'!D9:M9-25)),2)</f>
+        <v>3992004</v>
+      </c>
+      <c r="E9" s="65">
+        <f>POWER((3+0.2*('무기 DB'!E9:O9-25)),2)</f>
+        <v>4401604</v>
+      </c>
+      <c r="F9" s="65">
+        <f>POWER((3+0.2*('무기 DB'!F9:P9-25)),2)</f>
+        <v>4831204</v>
+      </c>
+      <c r="G9" s="65">
+        <f>POWER((3+0.2*('무기 DB'!G9:Q9-25)),2)</f>
+        <v>5280804</v>
+      </c>
+      <c r="H9" s="65">
+        <f>POWER((3+0.2*('무기 DB'!H9:R9-25)),2)</f>
+        <v>5750404</v>
+      </c>
+      <c r="I9" s="65">
+        <f>POWER((3+0.2*('무기 DB'!I9:S9-25)),2)</f>
+        <v>6240004</v>
+      </c>
+      <c r="J9" s="65">
+        <f>POWER((3+0.2*('무기 DB'!J9:T9-25)),2)</f>
+        <v>6749604</v>
+      </c>
+      <c r="K9" s="65">
+        <f>POWER((3+0.2*('무기 DB'!K9:U9-25)),2)</f>
+        <v>7279204</v>
+      </c>
+      <c r="L9" s="65">
+        <f>POWER((3+0.2*('무기 DB'!L9:V9-25)),2)</f>
+        <v>7828804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="170" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="30.875" customWidth="1"/>
@@ -18873,29 +18811,29 @@
     <col min="14" max="14" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C1" s="153" t="s">
+    <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+    <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.6">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
@@ -18930,8 +18868,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C4" s="172" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="173" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -18965,8 +18903,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C5" s="173"/>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="174"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -18998,8 +18936,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C6" s="173"/>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="174"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19031,8 +18969,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C7" s="173"/>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="174"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19064,8 +19002,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C8" s="173"/>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="174"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19097,8 +19035,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C9" s="173"/>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="174"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19130,8 +19068,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C10" s="173"/>
+    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="174"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19163,8 +19101,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C11" s="173"/>
+    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="174"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19196,8 +19134,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C12" s="170" t="s">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19231,8 +19169,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C13" s="171"/>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="172"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19264,8 +19202,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C14" s="171"/>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="172"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -19297,8 +19235,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C15" s="171"/>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="172"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -19330,8 +19268,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C16" s="171"/>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="172"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -19363,8 +19301,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C17" s="171"/>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="172"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -19396,8 +19334,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C18" s="171"/>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="172"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -19429,8 +19367,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C19" s="171"/>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="172"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -19462,8 +19400,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="23" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="22" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:C19"/>
@@ -19476,7 +19414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C104"/>
   <sheetViews>
@@ -19484,7 +19422,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
@@ -19494,17 +19432,17 @@
     <col min="9" max="9" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="174" t="s">
+    <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="153"/>
-    </row>
-    <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="C2" s="154"/>
+    </row>
+    <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>130</v>
       </c>
@@ -19512,7 +19450,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>1</v>
       </c>
@@ -19521,7 +19459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>2</v>
       </c>
@@ -19530,7 +19468,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>3</v>
       </c>
@@ -19539,7 +19477,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>4</v>
       </c>
@@ -19548,7 +19486,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>5</v>
       </c>
@@ -19557,7 +19495,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>6</v>
       </c>
@@ -19566,7 +19504,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>7</v>
       </c>
@@ -19575,7 +19513,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>8</v>
       </c>
@@ -19584,7 +19522,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>9</v>
       </c>
@@ -19593,7 +19531,7 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>10</v>
       </c>
@@ -19602,7 +19540,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>11</v>
       </c>
@@ -19611,7 +19549,7 @@
         <v>8281</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>12</v>
       </c>
@@ -19620,7 +19558,7 @@
         <v>9801</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>13</v>
       </c>
@@ -19629,7 +19567,7 @@
         <v>11449</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>14</v>
       </c>
@@ -19638,7 +19576,7 @@
         <v>13225</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>15</v>
       </c>
@@ -19647,7 +19585,7 @@
         <v>15129</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>16</v>
       </c>
@@ -19656,7 +19594,7 @@
         <v>17161</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>17</v>
       </c>
@@ -19665,7 +19603,7 @@
         <v>19321</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>18</v>
       </c>
@@ -19674,7 +19612,7 @@
         <v>21609</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>19</v>
       </c>
@@ -19683,7 +19621,7 @@
         <v>24025</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>20</v>
       </c>
@@ -19692,7 +19630,7 @@
         <v>26569</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>21</v>
       </c>
@@ -19701,7 +19639,7 @@
         <v>29241</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>22</v>
       </c>
@@ -19710,7 +19648,7 @@
         <v>32041</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>23</v>
       </c>
@@ -19719,7 +19657,7 @@
         <v>34969</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>24</v>
       </c>
@@ -19728,7 +19666,7 @@
         <v>38025</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>25</v>
       </c>
@@ -19737,7 +19675,7 @@
         <v>41209</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>26</v>
       </c>
@@ -19746,7 +19684,7 @@
         <v>44521</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>27</v>
       </c>
@@ -19755,7 +19693,7 @@
         <v>47961</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>28</v>
       </c>
@@ -19764,7 +19702,7 @@
         <v>51529</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>29</v>
       </c>
@@ -19773,7 +19711,7 @@
         <v>55225</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>30</v>
       </c>
@@ -19782,7 +19720,7 @@
         <v>59049</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>31</v>
       </c>
@@ -19791,7 +19729,7 @@
         <v>63001</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>32</v>
       </c>
@@ -19800,7 +19738,7 @@
         <v>67081</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>33</v>
       </c>
@@ -19809,7 +19747,7 @@
         <v>71289</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>34</v>
       </c>
@@ -19818,7 +19756,7 @@
         <v>75625</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>35</v>
       </c>
@@ -19827,7 +19765,7 @@
         <v>80089</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>36</v>
       </c>
@@ -19836,7 +19774,7 @@
         <v>84681</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>37</v>
       </c>
@@ -19845,7 +19783,7 @@
         <v>89401</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>38</v>
       </c>
@@ -19854,7 +19792,7 @@
         <v>94249</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>39</v>
       </c>
@@ -19863,7 +19801,7 @@
         <v>99225</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>40</v>
       </c>
@@ -19872,7 +19810,7 @@
         <v>104329</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>41</v>
       </c>
@@ -19881,7 +19819,7 @@
         <v>109561</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>42</v>
       </c>
@@ -19890,7 +19828,7 @@
         <v>114921</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>43</v>
       </c>
@@ -19899,7 +19837,7 @@
         <v>120409</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>44</v>
       </c>
@@ -19908,7 +19846,7 @@
         <v>126025</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>45</v>
       </c>
@@ -19917,7 +19855,7 @@
         <v>131769</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>46</v>
       </c>
@@ -19926,7 +19864,7 @@
         <v>137641</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>47</v>
       </c>
@@ -19935,7 +19873,7 @@
         <v>143641</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>48</v>
       </c>
@@ -19944,7 +19882,7 @@
         <v>149769</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>49</v>
       </c>
@@ -19953,7 +19891,7 @@
         <v>156025</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>50</v>
       </c>
@@ -19962,7 +19900,7 @@
         <v>162409</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>51</v>
       </c>
@@ -19971,7 +19909,7 @@
         <v>168921</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>52</v>
       </c>
@@ -19980,7 +19918,7 @@
         <v>175561</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>53</v>
       </c>
@@ -19989,7 +19927,7 @@
         <v>182329</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>54</v>
       </c>
@@ -19998,7 +19936,7 @@
         <v>189225</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>55</v>
       </c>
@@ -20007,7 +19945,7 @@
         <v>196249</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>56</v>
       </c>
@@ -20016,7 +19954,7 @@
         <v>203401</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>57</v>
       </c>
@@ -20025,7 +19963,7 @@
         <v>210681</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>58</v>
       </c>
@@ -20034,7 +19972,7 @@
         <v>218089</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>59</v>
       </c>
@@ -20043,7 +19981,7 @@
         <v>225625</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>60</v>
       </c>
@@ -20052,7 +19990,7 @@
         <v>233289</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>61</v>
       </c>
@@ -20061,7 +19999,7 @@
         <v>241081</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>62</v>
       </c>
@@ -20070,7 +20008,7 @@
         <v>249001</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>63</v>
       </c>
@@ -20079,7 +20017,7 @@
         <v>257049</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>64</v>
       </c>
@@ -20088,7 +20026,7 @@
         <v>265225</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>65</v>
       </c>
@@ -20097,7 +20035,7 @@
         <v>273529</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>66</v>
       </c>
@@ -20106,7 +20044,7 @@
         <v>281961</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>67</v>
       </c>
@@ -20115,7 +20053,7 @@
         <v>290521</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>68</v>
       </c>
@@ -20124,7 +20062,7 @@
         <v>299209</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="9">
         <v>69</v>
       </c>
@@ -20133,7 +20071,7 @@
         <v>308025</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="9">
         <v>70</v>
       </c>
@@ -20142,7 +20080,7 @@
         <v>316969</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="9">
         <v>71</v>
       </c>
@@ -20151,7 +20089,7 @@
         <v>326041</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="9">
         <v>72</v>
       </c>
@@ -20160,7 +20098,7 @@
         <v>335241</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="9">
         <v>73</v>
       </c>
@@ -20169,7 +20107,7 @@
         <v>344569</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="9">
         <v>74</v>
       </c>
@@ -20178,7 +20116,7 @@
         <v>354025</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="9">
         <v>75</v>
       </c>
@@ -20187,7 +20125,7 @@
         <v>363609</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="9">
         <v>76</v>
       </c>
@@ -20196,7 +20134,7 @@
         <v>373321</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="9">
         <v>77</v>
       </c>
@@ -20205,7 +20143,7 @@
         <v>383161</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="9">
         <v>78</v>
       </c>
@@ -20214,7 +20152,7 @@
         <v>393129</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="9">
         <v>79</v>
       </c>
@@ -20223,7 +20161,7 @@
         <v>403225</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="9">
         <v>80</v>
       </c>
@@ -20232,7 +20170,7 @@
         <v>413449</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="9">
         <v>81</v>
       </c>
@@ -20241,7 +20179,7 @@
         <v>423801</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="9">
         <v>82</v>
       </c>
@@ -20250,7 +20188,7 @@
         <v>434281</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="9">
         <v>83</v>
       </c>
@@ -20259,7 +20197,7 @@
         <v>444889</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="9">
         <v>84</v>
       </c>
@@ -20268,7 +20206,7 @@
         <v>455625</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="9">
         <v>85</v>
       </c>
@@ -20277,7 +20215,7 @@
         <v>466489</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="9">
         <v>86</v>
       </c>
@@ -20286,7 +20224,7 @@
         <v>477481</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="9">
         <v>87</v>
       </c>
@@ -20295,7 +20233,7 @@
         <v>488601</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="9">
         <v>88</v>
       </c>
@@ -20304,7 +20242,7 @@
         <v>499849</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="9">
         <v>89</v>
       </c>
@@ -20313,7 +20251,7 @@
         <v>511225</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="9">
         <v>90</v>
       </c>
@@ -20322,7 +20260,7 @@
         <v>522729</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="9">
         <v>91</v>
       </c>
@@ -20331,7 +20269,7 @@
         <v>534361</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="9">
         <v>92</v>
       </c>
@@ -20340,7 +20278,7 @@
         <v>546121</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="9">
         <v>93</v>
       </c>
@@ -20349,7 +20287,7 @@
         <v>558009</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="9">
         <v>94</v>
       </c>
@@ -20358,7 +20296,7 @@
         <v>570025</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="9">
         <v>95</v>
       </c>
@@ -20367,7 +20305,7 @@
         <v>582169</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="9">
         <v>96</v>
       </c>
@@ -20376,7 +20314,7 @@
         <v>594441</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="9">
         <v>97</v>
       </c>
@@ -20385,7 +20323,7 @@
         <v>606841</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="9">
         <v>98</v>
       </c>
@@ -20394,7 +20332,7 @@
         <v>619369</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="9">
         <v>99</v>
       </c>
@@ -20403,7 +20341,7 @@
         <v>632025</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="9">
         <v>100</v>
       </c>
@@ -20421,7 +20359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
@@ -20429,7 +20367,7 @@
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -20439,25 +20377,25 @@
     <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="167" t="s">
+    <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="168" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-    </row>
-    <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
         <v>132</v>
       </c>
@@ -20477,7 +20415,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="51" t="s">
         <v>135</v>
       </c>
@@ -20497,7 +20435,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="51" t="s">
         <v>135</v>
       </c>
@@ -20517,7 +20455,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>141</v>
       </c>
@@ -20537,7 +20475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>141</v>
       </c>
@@ -20557,7 +20495,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>142</v>
       </c>
@@ -20577,7 +20515,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>142</v>
       </c>
@@ -20597,7 +20535,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="54" t="s">
         <v>143</v>
       </c>
@@ -20617,7 +20555,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="54" t="s">
         <v>143</v>
       </c>
